--- a/classfiers/chain/welm/chain_welm_tanh_results.xlsx
+++ b/classfiers/chain/welm/chain_welm_tanh_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9699570815450643</v>
+        <v>0.9248826291079812</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.908957415565345</v>
+        <v>0.6034263959390862</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9785407725321889</v>
+        <v>0.9530516431924883</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2467532467532467</v>
+        <v>0.7546798029556651</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9914163090128756</v>
+        <v>0.9245283018867925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9935064935064934</v>
+        <v>0.3678510998307952</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9870689655172413</v>
+        <v>0.9481132075471698</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.296943231441048</v>
+        <v>0.7094059405940594</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9870689655172413</v>
+        <v>0.9528301886792453</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8791848617176127</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9828104188249223</v>
+        <v>0.9406811940827355</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6650690497967492</v>
+        <v>0.6360726478639211</v>
       </c>
     </row>
   </sheetData>
